--- a/data_excel/attendance.xlsx
+++ b/data_excel/attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\mini projects\AchReport\project\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\mini projects\NeonDb\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D16954-F6C5-47C9-A0DA-AC1DC878E1A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A646CE9E-F3A3-43EB-B500-A43152549758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9996" xr2:uid="{B5E131B1-563E-4667-B456-7FB2F499920E}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
